--- a/medicine/Sexualité et sexologie/Brandon_Wade/Brandon_Wade.xlsx
+++ b/medicine/Sexualité et sexologie/Brandon_Wade/Brandon_Wade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brandon Wade (né Lead Wey) est un entrepreneur américain, actif en particulier par ses sites de rencontres qui auraient 2,3 millions d'utilisateurs et rapporteraient, selon ses déclarations, plus de 10 millions de dollars (environ 7,5 millions d'euros) par an[1]. Son activité lui vaut le surnom de "Mister sugar daddy" ou "e-pimp"[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandon Wade (né Lead Wey) est un entrepreneur américain, actif en particulier par ses sites de rencontres qui auraient 2,3 millions d'utilisateurs et rapporteraient, selon ses déclarations, plus de 10 millions de dollars (environ 7,5 millions d'euros) par an. Son activité lui vaut le surnom de "Mister sugar daddy" ou "e-pimp".
 </t>
         </is>
       </c>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parcours professionnel
-Brandon Wade sort diplômé en physique du MIT en 1993, et obtient son MBA à la Sloan school of management en 1995[3].
-Sites de rencontres
-Ses sites les plus connus sont SeekingArrangement, SeekingMillionnaire, MissTravel.com (lancé en 2013[3]), Openminded.com (site pour adultères)[4] et WhatsYourPrice, où les rencontres sont « mutuellement avantageuses », ce qui serait, d'après le quotidien Le Monde, « une façon habile de désigner ce qui peut s'apparenter à des relations tarifées et donc à de la prostitution », bien qu'on peut lire sur une page d'accueil « Escort, s'abstenir » et que « aux États-Unis, où la prostitution est prohibée, les sites de M. Wade n'ont jamais pu être interdits, ni son créateur condamné. L'offre de services sexuels entre les deux parties est par nature difficile à prouver[1] », de même qu'en France « aucun cadre législatif ne permet de poursuivre cette offre qui joue sur l'ambiguïté[1] ». Brandon Wade a déclaré à plusieurs reprises « Nous ne faisons rien d'autre que de mettre en relation des gens qui n'ont pas peur d'être honnêtes et d'énoncer franchement ce qu'ils désirent[5] ».
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandon Wade sort diplômé en physique du MIT en 1993, et obtient son MBA à la Sloan school of management en 1995.
 </t>
         </is>
       </c>
@@ -542,13 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sites de rencontres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses sites les plus connus sont SeekingArrangement, SeekingMillionnaire, MissTravel.com (lancé en 2013), Openminded.com (site pour adultères) et WhatsYourPrice, où les rencontres sont « mutuellement avantageuses », ce qui serait, d'après le quotidien Le Monde, « une façon habile de désigner ce qui peut s'apparenter à des relations tarifées et donc à de la prostitution », bien qu'on peut lire sur une page d'accueil « Escort, s'abstenir » et que « aux États-Unis, où la prostitution est prohibée, les sites de M. Wade n'ont jamais pu être interdits, ni son créateur condamné. L'offre de services sexuels entre les deux parties est par nature difficile à prouver », de même qu'en France « aucun cadre législatif ne permet de poursuivre cette offre qui joue sur l'ambiguïté ». Brandon Wade a déclaré à plusieurs reprises « Nous ne faisons rien d'autre que de mettre en relation des gens qui n'ont pas peur d'être honnêtes et d'énoncer franchement ce qu'ils désirent ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brandon_Wade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brandon_Wade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Seeking Arrangement: The Definitive Guide to Sugar Daddy and Mutually Beneficial Relationships, WeyHouse, 2013[6].
-(écrit avec Marcy Sheiner) Connecting with the in Crowd, Bush Street Press, 2011[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Seeking Arrangement: The Definitive Guide to Sugar Daddy and Mutually Beneficial Relationships, WeyHouse, 2013.
+(écrit avec Marcy Sheiner) Connecting with the in Crowd, Bush Street Press, 2011.</t>
         </is>
       </c>
     </row>
